--- a/账号公布/2024年/9.7.xlsx
+++ b/账号公布/2024年/9.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/账号公布/2024年/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20916D84-866F-D64E-89A0-875CF9C98514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BB3F33-B4A8-F24B-B08C-6C3B354EF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15640" xr2:uid="{06B0330C-9C97-994F-AAA4-E051CA9AC532}"/>
+    <workbookView xWindow="11300" yWindow="960" windowWidth="27640" windowHeight="15640" xr2:uid="{06B0330C-9C97-994F-AAA4-E051CA9AC532}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>领取人</t>
   </si>
@@ -66,13 +66,127 @@
   </si>
   <si>
     <t>卡号：ldqph29480----wvkl17382W----dd732233@stcail42.cn----99740144</t>
+  </si>
+  <si>
+    <t>科乐美账号:d950520466,密码:nb25a4df</t>
+  </si>
+  <si>
+    <t>科乐美账号:baba455507,密码:bc451ec22</t>
+  </si>
+  <si>
+    <t>科乐美账号:y2a2d52565,密码:v69a4593</t>
+  </si>
+  <si>
+    <t>科乐美账号:xb2ac21126,密码:obdc4c76</t>
+  </si>
+  <si>
+    <t>科乐美账号:bee0000553,密码:h4aa1dace</t>
+  </si>
+  <si>
+    <t>科乐美账号:x22fe67206,密码:k41ad014b</t>
+  </si>
+  <si>
+    <t>科乐美账号:f9be808423,密码:g64335df7</t>
+  </si>
+  <si>
+    <t>科乐美账号:p591735400,密码:q6688a904</t>
+  </si>
+  <si>
+    <t>科乐美账号:u7e5a89222,密码:z60316f8c</t>
+  </si>
+  <si>
+    <t>科乐美账号:u363a22693,密码:d93feb20</t>
+  </si>
+  <si>
+    <t>科乐美账号:sebf289386,密码:i539f550</t>
+  </si>
+  <si>
+    <t>科乐美账号:l213b49943,密码:lf2ec55f</t>
+  </si>
+  <si>
+    <t>科乐美账号:uf31353156,密码:x7c43e7d</t>
+  </si>
+  <si>
+    <t>科乐美账号:k3fde67556,密码:da50c8fd</t>
+  </si>
+  <si>
+    <t>科乐美账号:q27ac98520,密码:nf9430ef9</t>
+  </si>
+  <si>
+    <t>科乐美账号:p75d775102,密码:w79feba1e</t>
+  </si>
+  <si>
+    <t>科乐美账号:f662521196,密码:d68146a4</t>
+  </si>
+  <si>
+    <t>科乐美账号:l30cd98671,密码:td09cff8c</t>
+  </si>
+  <si>
+    <t>科乐美账号:t972216465,密码:z77bfb97d</t>
+  </si>
+  <si>
+    <t>科乐美账号:cbfc274587,密码:pb85d6492</t>
+  </si>
+  <si>
+    <t>科乐美账号:u53e841429,密码:k5893f4fe</t>
+  </si>
+  <si>
+    <t>科乐美账号:t4b2774303,密码:a2c4f2bfa</t>
+  </si>
+  <si>
+    <t>科乐美账号:bbf7316919,密码:o732c5230</t>
+  </si>
+  <si>
+    <t>科乐美账号:d16a461300,密码:w5b6bb7ad</t>
+  </si>
+  <si>
+    <t>科乐美账号:o220683761,密码:ob0093c1</t>
+  </si>
+  <si>
+    <t>科乐美账号:g932449421,密码:ue427cf1</t>
+  </si>
+  <si>
+    <t>科乐美账号:m596533395,密码:bf16446a1</t>
+  </si>
+  <si>
+    <r>
+      <t>科乐美账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:x7b5557645,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:s3a97420</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +205,19 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="PingFang HK"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,12 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2035E79D-CFCF-6541-89A6-4D9A6353D22A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -508,6 +637,146 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="17">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="17">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="17">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="17">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17">
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17">
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="17">
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="17">
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="17">
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17">
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="20">
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
